--- a/data/trans_orig/P1405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5183AAEB-B2F3-4DD7-B947-37EFE6BBDEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6186318-3329-44DD-BC68-D231500A6E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFC49F72-B618-43D1-8C69-982B2804BF26}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7FD1F89D-64F1-44F6-9E51-882E7AC481E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="171">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -97,25 +97,25 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,7 +124,7 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>99,36%</t>
@@ -133,19 +133,19 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,31 +169,31 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>98,73%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -202,19 +202,19 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -235,22 +235,19 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -259,7 +256,7 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -268,10 +265,7 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>98,91%</t>
@@ -280,7 +274,7 @@
     <t>97,87%</t>
   </si>
   <si>
-    <t>99,5%</t>
+    <t>99,49%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -289,151 +283,145 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -445,49 +433,49 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -496,25 +484,28 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,98%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,08%</t>
@@ -971,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93330197-1427-4E1E-9B7A-FC253171FF02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2329E27B-35A6-4151-B418-395C98293C0A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1430,7 +1421,7 @@
         <v>3459</v>
       </c>
       <c r="N10" s="7">
-        <v>3683309</v>
+        <v>3683308</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1481,7 +1472,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1576,10 +1567,10 @@
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1588,13 +1579,13 @@
         <v>10260</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1600,13 @@
         <v>478221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -1624,13 +1615,13 @@
         <v>451331</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>841</v>
@@ -1639,13 +1630,13 @@
         <v>929552</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1755,13 @@
         <v>28765</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -1779,13 +1770,13 @@
         <v>61621</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -1794,13 +1785,13 @@
         <v>90386</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1806,13 @@
         <v>3391017</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>3236</v>
@@ -1830,28 +1821,28 @@
         <v>3488216</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>6413</v>
       </c>
       <c r="N18" s="7">
-        <v>6879232</v>
+        <v>6879233</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,7 +1884,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1907,7 +1898,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED96D12-DF30-4E3E-BCDA-78073460645C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD261B9F-7BA5-4F11-BD21-1171A6EA4E0B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2056,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2071,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2101,13 +2092,13 @@
         <v>2133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -2116,13 +2107,13 @@
         <v>25866</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -2131,13 +2122,13 @@
         <v>27999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2143,13 @@
         <v>752214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>870</v>
@@ -2167,13 +2158,13 @@
         <v>968794</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>1630</v>
@@ -2182,13 +2173,13 @@
         <v>1721008</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2298,13 @@
         <v>17481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -2322,13 +2313,13 @@
         <v>26635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -2337,13 +2328,13 @@
         <v>44115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2349,13 @@
         <v>2058904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>1882</v>
@@ -2373,13 +2364,13 @@
         <v>1961665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>3818</v>
@@ -2388,13 +2379,13 @@
         <v>4020570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2483,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2513,13 +2504,13 @@
         <v>4526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2528,13 +2519,13 @@
         <v>3231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2543,13 +2534,13 @@
         <v>7758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2555,13 @@
         <v>542360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -2579,13 +2570,13 @@
         <v>545909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -2594,13 +2585,13 @@
         <v>1088268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2710,13 @@
         <v>24140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2734,13 +2725,13 @@
         <v>55732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -2749,13 +2740,13 @@
         <v>79872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2761,13 @@
         <v>3353478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H18" s="7">
         <v>3275</v>
@@ -2785,13 +2776,13 @@
         <v>3476368</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="M18" s="7">
         <v>6469</v>
@@ -2800,13 +2791,13 @@
         <v>6829846</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2853,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00871890-1E6F-47F8-B5E5-BE64E817CD22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AD0745-41E3-40C3-B772-EB8D928C3EF4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2898,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3005,10 +2996,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3020,10 +3011,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3035,10 +3026,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3062,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3077,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3113,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3128,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3211,10 +3202,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3226,10 +3217,10 @@
         <v>2249520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3241,10 +3232,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3283,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3298,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3349,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,10 +3408,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3432,10 +3423,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3447,10 +3438,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3474,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3504,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3555,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,10 +3614,10 @@
         <v>3376695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3638,10 +3629,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3653,10 +3644,10 @@
         <v>7176055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3695,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3710,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3761,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3808,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6186318-3329-44DD-BC68-D231500A6E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94CC539-4202-43CC-B00F-7C9061376B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7FD1F89D-64F1-44F6-9E51-882E7AC481E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39A563BF-F8AB-4830-8703-81C617E20E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="174">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,187 +94,193 @@
     <t>1,19%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>99,47%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -283,232 +289,235 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
@@ -962,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2329E27B-35A6-4151-B418-395C98293C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4767374-44CE-47E5-AF9A-2F85512EE7E3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1215,7 +1224,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>2266372</v>
+        <v>2266371</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1266,7 +1275,7 @@
         <v>2154</v>
       </c>
       <c r="N7" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1421,7 +1430,7 @@
         <v>3459</v>
       </c>
       <c r="N10" s="7">
-        <v>3683308</v>
+        <v>3683309</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1472,7 +1481,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1567,10 +1576,10 @@
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1579,13 +1588,13 @@
         <v>10260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1609,13 @@
         <v>478221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -1615,13 +1624,13 @@
         <v>451331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>841</v>
@@ -1630,13 +1639,13 @@
         <v>929552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1764,13 @@
         <v>28765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -1770,13 +1779,13 @@
         <v>61621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -1785,13 +1794,13 @@
         <v>90386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,10 +1815,10 @@
         <v>3391017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>91</v>
@@ -1833,7 +1842,7 @@
         <v>6413</v>
       </c>
       <c r="N18" s="7">
-        <v>6879233</v>
+        <v>6879232</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>95</v>
@@ -1884,7 +1893,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1917,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD261B9F-7BA5-4F11-BD21-1171A6EA4E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE607B4-7079-4366-97DB-9EE695E3A730}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2110,10 +2119,10 @@
         <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -2122,7 +2131,7 @@
         <v>27999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>107</v>
@@ -2164,7 +2173,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M6" s="7">
         <v>1630</v>
@@ -2173,7 +2182,7 @@
         <v>1721008</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>115</v>
@@ -2298,13 +2307,13 @@
         <v>17481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -2316,10 +2325,10 @@
         <v>119</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -2328,13 +2337,13 @@
         <v>44115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2358,13 @@
         <v>2058904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>1882</v>
@@ -2364,13 +2373,13 @@
         <v>1961665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>3818</v>
@@ -2379,13 +2388,13 @@
         <v>4020570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2474,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2504,13 +2513,13 @@
         <v>4526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2519,13 +2528,13 @@
         <v>3231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2534,13 +2543,13 @@
         <v>7758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2564,13 @@
         <v>542360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -2570,13 +2579,13 @@
         <v>545909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -2585,13 +2594,13 @@
         <v>1088268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2719,13 @@
         <v>24140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2725,13 +2734,13 @@
         <v>55732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -2740,13 +2749,13 @@
         <v>79872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2770,13 @@
         <v>3353478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
         <v>3275</v>
@@ -2776,13 +2785,13 @@
         <v>3476368</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="M18" s="7">
         <v>6469</v>
@@ -2791,13 +2800,13 @@
         <v>6829846</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AD0745-41E3-40C3-B772-EB8D928C3EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE360D7-D088-453A-85D3-BEDC7BC6B454}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2889,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3014,7 +3023,7 @@
         <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3029,7 +3038,7 @@
         <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3068,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3119,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3205,7 +3214,7 @@
         <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3214,13 +3223,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3235,7 +3244,7 @@
         <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3274,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3289,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3340,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3376,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3426,7 +3435,7 @@
         <v>111</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3441,7 +3450,7 @@
         <v>111</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3495,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3620,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3632,7 +3641,7 @@
         <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3641,13 +3650,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3686,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3701,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3752,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3773,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3794,7 +3803,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C9D49D-EB96-43D0-8856-7BFAFEBCF0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{167E5726-7BD8-4498-B587-E728E24601B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75E3A0C2-AB8E-46F7-A819-BA3AAAF6AE41}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6451CFBF-81A1-4F7F-9491-375098BA4E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -877,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9CC73-B0C2-4F9B-9FE6-C2ABB1E76B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C13D34-9E4A-4B5D-A8FC-54BE07E4227A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1234,7 +1234,7 @@
         <v>3459</v>
       </c>
       <c r="N8" s="7">
-        <v>3683309</v>
+        <v>3683308</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1285,7 +1285,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>841</v>
       </c>
       <c r="N11" s="7">
-        <v>929552</v>
+        <v>929553</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1440,7 +1440,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1544,7 @@
         <v>6413</v>
       </c>
       <c r="N14" s="7">
-        <v>6879232</v>
+        <v>6879233</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1595,7 +1595,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1628,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43621892-5D76-471D-AE3F-E9511C996B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695AD141-D92A-4060-8D91-52E06AF1D5C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2140,7 +2140,7 @@
         <v>1021</v>
       </c>
       <c r="N11" s="7">
-        <v>1088268</v>
+        <v>1088269</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>127</v>
@@ -2191,7 +2191,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
